--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ntn1-Mcam.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H2">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I2">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J2">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="N2">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="O2">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="P2">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="Q2">
-        <v>168.8199856639717</v>
+        <v>156.34648239679</v>
       </c>
       <c r="R2">
-        <v>1519.379870975745</v>
+        <v>1407.11834157111</v>
       </c>
       <c r="S2">
-        <v>0.07482166579246965</v>
+        <v>0.1176993122968309</v>
       </c>
       <c r="T2">
-        <v>0.1037008840951619</v>
+        <v>0.1404671230230833</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H3">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I3">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J3">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>10.114657</v>
       </c>
       <c r="O3">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="P3">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="Q3">
-        <v>6.447425146287222</v>
+        <v>5.426193183028333</v>
       </c>
       <c r="R3">
-        <v>58.02682631658499</v>
+        <v>48.835738647255</v>
       </c>
       <c r="S3">
-        <v>0.002857523578266831</v>
+        <v>0.004084896546705417</v>
       </c>
       <c r="T3">
-        <v>0.003960453409457031</v>
+        <v>0.00487508086976382</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H4">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I4">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J4">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="N4">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="O4">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="P4">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="Q4">
-        <v>1.265391685585556</v>
+        <v>1.115406182275</v>
       </c>
       <c r="R4">
-        <v>11.38852517027</v>
+        <v>10.038655640475</v>
       </c>
       <c r="S4">
-        <v>0.0005608264532370348</v>
+        <v>0.0008396897619494927</v>
       </c>
       <c r="T4">
-        <v>0.0007772908877215584</v>
+        <v>0.001002119747271953</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H5">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I5">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J5">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="N5">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="O5">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="P5">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="Q5">
-        <v>153.2493083808467</v>
+        <v>19.1612403690575</v>
       </c>
       <c r="R5">
-        <v>919.49585028508</v>
+        <v>114.967442214345</v>
       </c>
       <c r="S5">
-        <v>0.06792068184049074</v>
+        <v>0.01442478768705989</v>
       </c>
       <c r="T5">
-        <v>0.06275753313433072</v>
+        <v>0.01147675030029129</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.912301666666667</v>
+        <v>1.609405</v>
       </c>
       <c r="H6">
-        <v>5.736905</v>
+        <v>4.828215</v>
       </c>
       <c r="I6">
-        <v>0.1465770754282357</v>
+        <v>0.1374279556489526</v>
       </c>
       <c r="J6">
-        <v>0.1717732502851657</v>
+        <v>0.1582737093407849</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="N6">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="O6">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="P6">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="Q6">
-        <v>0.9394723756305555</v>
+        <v>0.5038043859216668</v>
       </c>
       <c r="R6">
-        <v>8.455251380675</v>
+        <v>4.534239473295001</v>
       </c>
       <c r="S6">
-        <v>0.0004163777637714154</v>
+        <v>0.0003792693564068623</v>
       </c>
       <c r="T6">
-        <v>0.0005770887584944406</v>
+        <v>0.0004526354003745763</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>14.172296</v>
       </c>
       <c r="I7">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J7">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="N7">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="O7">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="P7">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="Q7">
-        <v>417.0483575282426</v>
+        <v>458.9250120564426</v>
       </c>
       <c r="R7">
-        <v>3753.435217754184</v>
+        <v>4130.325108507984</v>
       </c>
       <c r="S7">
-        <v>0.1848374332194719</v>
+        <v>0.3454836814158291</v>
       </c>
       <c r="T7">
-        <v>0.2561798783243451</v>
+        <v>0.4123142084086047</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>14.172296</v>
       </c>
       <c r="I8">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J8">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>10.114657</v>
       </c>
       <c r="O8">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="P8">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="Q8">
         <v>15.92754588249689</v>
@@ -948,10 +948,10 @@
         <v>143.347912942472</v>
       </c>
       <c r="S8">
-        <v>0.007059149485336898</v>
+        <v>0.01199042772314137</v>
       </c>
       <c r="T8">
-        <v>0.009783797712012704</v>
+        <v>0.01430986174191296</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>14.172296</v>
       </c>
       <c r="I9">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J9">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="N9">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="O9">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="P9">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="Q9">
-        <v>3.125989627518222</v>
+        <v>3.274060201426667</v>
       </c>
       <c r="R9">
-        <v>28.133906647664</v>
+        <v>29.46654181284</v>
       </c>
       <c r="S9">
-        <v>0.001385450604447069</v>
+        <v>0.002464747707904007</v>
       </c>
       <c r="T9">
-        <v>0.001920198528456144</v>
+        <v>0.002941529672101038</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>14.172296</v>
       </c>
       <c r="I10">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J10">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="N10">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="O10">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="P10">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="Q10">
-        <v>378.5829746472426</v>
+        <v>56.24413375076134</v>
       </c>
       <c r="R10">
-        <v>2271.497847883456</v>
+        <v>337.464802504568</v>
       </c>
       <c r="S10">
-        <v>0.1677894278474647</v>
+        <v>0.04234118837669162</v>
       </c>
       <c r="T10">
-        <v>0.1550345239827996</v>
+        <v>0.03368779194253301</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>14.172296</v>
       </c>
       <c r="I11">
-        <v>0.3621000695990751</v>
+        <v>0.4033933174334258</v>
       </c>
       <c r="J11">
-        <v>0.42434402311411</v>
+        <v>0.4645820158786568</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="N11">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="O11">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="P11">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="Q11">
-        <v>2.320847319462222</v>
+        <v>1.478820823716445</v>
       </c>
       <c r="R11">
-        <v>20.88762587516</v>
+        <v>13.309387413448</v>
       </c>
       <c r="S11">
-        <v>0.001028608442354645</v>
+        <v>0.001113272209859658</v>
       </c>
       <c r="T11">
-        <v>0.001425624566496347</v>
+        <v>0.001328624113505096</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H12">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I12">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J12">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="N12">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="O12">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="P12">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="Q12">
-        <v>29.99168931137567</v>
+        <v>46.27177026065199</v>
       </c>
       <c r="R12">
-        <v>269.925203802381</v>
+        <v>416.445932345868</v>
       </c>
       <c r="S12">
-        <v>0.01329243184911749</v>
+        <v>0.03483388596242257</v>
       </c>
       <c r="T12">
-        <v>0.01842296505869698</v>
+        <v>0.04157216936421652</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H13">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I13">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J13">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>10.114657</v>
       </c>
       <c r="O13">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="P13">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="Q13">
-        <v>1.145416350352556</v>
+        <v>1.605917578099333</v>
       </c>
       <c r="R13">
-        <v>10.308747153173</v>
+        <v>14.453258202894</v>
       </c>
       <c r="S13">
-        <v>0.0005076529240435727</v>
+        <v>0.001208952012543421</v>
       </c>
       <c r="T13">
-        <v>0.0007035937582949523</v>
+        <v>0.001442812262544657</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H14">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I14">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J14">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="N14">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="O14">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="P14">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="Q14">
-        <v>0.2248029707028889</v>
+        <v>0.33011179927</v>
       </c>
       <c r="R14">
-        <v>2.023226736326</v>
+        <v>2.97100619343</v>
       </c>
       <c r="S14">
-        <v>9.963353969574191E-05</v>
+        <v>0.0002485117103980729</v>
       </c>
       <c r="T14">
-        <v>0.0001380894964385932</v>
+        <v>0.0002965839333804065</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H15">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I15">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J15">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="N15">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="O15">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="P15">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="Q15">
-        <v>27.22548296675067</v>
+        <v>5.670895172531</v>
       </c>
       <c r="R15">
-        <v>163.352897800504</v>
+        <v>34.02537103518601</v>
       </c>
       <c r="S15">
-        <v>0.01206643857695533</v>
+        <v>0.004269110834360676</v>
       </c>
       <c r="T15">
-        <v>0.01114918016555014</v>
+        <v>0.00339661977099173</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.3397296666666667</v>
+        <v>0.476314</v>
       </c>
       <c r="H16">
-        <v>1.019189</v>
+        <v>1.428942</v>
       </c>
       <c r="I16">
-        <v>0.02604012841917865</v>
+        <v>0.04067270778143176</v>
       </c>
       <c r="J16">
-        <v>0.0305163510960854</v>
+        <v>0.04684214575631779</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="N16">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="O16">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="P16">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="Q16">
-        <v>0.1669018244238889</v>
+        <v>0.1491042231606667</v>
       </c>
       <c r="R16">
-        <v>1.502116419815</v>
+        <v>1.341938008446</v>
       </c>
       <c r="S16">
-        <v>7.39715293665182E-05</v>
+        <v>0.0001122472617070148</v>
       </c>
       <c r="T16">
-        <v>0.0001025226171047264</v>
+        <v>0.0001339604251844725</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H17">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I17">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J17">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="N17">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="O17">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="P17">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="Q17">
-        <v>506.8251315262845</v>
+        <v>449.5138780909959</v>
       </c>
       <c r="R17">
-        <v>3040.950789157706</v>
+        <v>2697.083268545976</v>
       </c>
       <c r="S17">
-        <v>0.2246268441330466</v>
+        <v>0.3383988786195932</v>
       </c>
       <c r="T17">
-        <v>0.2075513117881557</v>
+        <v>0.2692392786688735</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H18">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I18">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J18">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>10.114657</v>
       </c>
       <c r="O18">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="P18">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="Q18">
-        <v>19.3562218650885</v>
+        <v>15.60092113095133</v>
       </c>
       <c r="R18">
-        <v>116.137331190531</v>
+        <v>93.60552678570799</v>
       </c>
       <c r="S18">
-        <v>0.008578751844448375</v>
+        <v>0.01174454109974763</v>
       </c>
       <c r="T18">
-        <v>0.00792661805712638</v>
+        <v>0.009344273795740364</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H19">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I19">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J19">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="N19">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="O19">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="P19">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="Q19">
-        <v>3.798912225687</v>
+        <v>3.20691934321</v>
       </c>
       <c r="R19">
-        <v>22.793473354122</v>
+        <v>19.24151605926</v>
       </c>
       <c r="S19">
-        <v>0.00168369248348977</v>
+        <v>0.002414203348235811</v>
       </c>
       <c r="T19">
-        <v>0.001555702680794368</v>
+        <v>0.001920805325036777</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H20">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I20">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J20">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="N20">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="O20">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="P20">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="Q20">
-        <v>460.0794187427219</v>
+        <v>55.090740356213</v>
       </c>
       <c r="R20">
-        <v>1840.317674970888</v>
+        <v>220.362961424852</v>
       </c>
       <c r="S20">
-        <v>0.2039089647577677</v>
+        <v>0.04147290143307163</v>
       </c>
       <c r="T20">
-        <v>0.1256055668210709</v>
+        <v>0.0219979729477724</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>5.7410415</v>
+        <v>4.627222</v>
       </c>
       <c r="H21">
-        <v>11.482083</v>
+        <v>9.254443999999999</v>
       </c>
       <c r="I21">
-        <v>0.4400482871768651</v>
+        <v>0.3951209669373822</v>
       </c>
       <c r="J21">
-        <v>0.3437942090646518</v>
+        <v>0.3033699161629238</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="N21">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="O21">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="P21">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="Q21">
-        <v>2.820449299717499</v>
+        <v>1.448494778028667</v>
       </c>
       <c r="R21">
-        <v>16.922695798305</v>
+        <v>8.690968668172001</v>
       </c>
       <c r="S21">
-        <v>0.001250033958112724</v>
+        <v>0.00109044243673387</v>
       </c>
       <c r="T21">
-        <v>0.001155009717504494</v>
+        <v>0.0008675854255007484</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H22">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I22">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J22">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>88.281043</v>
+        <v>97.145518</v>
       </c>
       <c r="N22">
-        <v>264.843129</v>
+        <v>291.436554</v>
       </c>
       <c r="O22">
-        <v>0.5104595351890647</v>
+        <v>0.8564437398565636</v>
       </c>
       <c r="P22">
-        <v>0.6037079925017727</v>
+        <v>0.8874949832674887</v>
       </c>
       <c r="Q22">
-        <v>29.06373784138833</v>
+        <v>26.60427155948</v>
       </c>
       <c r="R22">
-        <v>261.573640572495</v>
+        <v>239.43844403532</v>
       </c>
       <c r="S22">
-        <v>0.01288116019495906</v>
+        <v>0.02002798156188785</v>
       </c>
       <c r="T22">
-        <v>0.01785295323541303</v>
+        <v>0.02390220380271069</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H23">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I23">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J23">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>10.114657</v>
       </c>
       <c r="O23">
-        <v>0.01949502382905625</v>
+        <v>0.02972391263055619</v>
       </c>
       <c r="P23">
-        <v>0.02305628730248842</v>
+        <v>0.03080158347250903</v>
       </c>
       <c r="Q23">
-        <v>1.109976839926111</v>
+        <v>0.9233333220066666</v>
       </c>
       <c r="R23">
-        <v>9.989791559335</v>
+        <v>8.309999898059999</v>
       </c>
       <c r="S23">
-        <v>0.0004919459969605781</v>
+        <v>0.0006950952484183568</v>
       </c>
       <c r="T23">
-        <v>0.0006818243655973534</v>
+        <v>0.0008295548025472268</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H24">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I24">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J24">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.6617113333333333</v>
+        <v>0.6930550000000001</v>
       </c>
       <c r="N24">
-        <v>1.985134</v>
+        <v>2.079165</v>
       </c>
       <c r="O24">
-        <v>0.003826153930268694</v>
+        <v>0.006110036040224633</v>
       </c>
       <c r="P24">
-        <v>0.00452509856122042</v>
+        <v>0.006331561643723485</v>
       </c>
       <c r="Q24">
-        <v>0.2178475023077778</v>
+        <v>0.1898000423</v>
       </c>
       <c r="R24">
-        <v>1.96062752077</v>
+        <v>1.7082003807</v>
       </c>
       <c r="S24">
-        <v>9.655084939907903E-05</v>
+        <v>0.0001428835117372495</v>
       </c>
       <c r="T24">
-        <v>0.0001338169678097573</v>
+        <v>0.000170522965933309</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H25">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I25">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J25">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>80.138668</v>
+        <v>11.9057915</v>
       </c>
       <c r="N25">
-        <v>160.277336</v>
+        <v>23.811583</v>
       </c>
       <c r="O25">
-        <v>0.4633786125289749</v>
+        <v>0.1049625428752409</v>
       </c>
       <c r="P25">
-        <v>0.365351025436994</v>
+        <v>0.07251204478679575</v>
       </c>
       <c r="Q25">
-        <v>26.38311871451333</v>
+        <v>3.26052006019</v>
       </c>
       <c r="R25">
-        <v>158.29871228708</v>
+        <v>19.56312036114</v>
       </c>
       <c r="S25">
-        <v>0.01169309950629649</v>
+        <v>0.002454554544057103</v>
       </c>
       <c r="T25">
-        <v>0.01080422133324282</v>
+        <v>0.001952909825207311</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.3292183333333333</v>
+        <v>0.27386</v>
       </c>
       <c r="H26">
-        <v>0.9876550000000001</v>
+        <v>0.82158</v>
       </c>
       <c r="I26">
-        <v>0.02523443937664543</v>
+        <v>0.02338505219880773</v>
       </c>
       <c r="J26">
-        <v>0.0295721664399873</v>
+        <v>0.02693221286131667</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.4912783333333333</v>
+        <v>0.3130376666666667</v>
       </c>
       <c r="N26">
-        <v>1.473835</v>
+        <v>0.9391130000000001</v>
       </c>
       <c r="O26">
-        <v>0.00284067452263553</v>
+        <v>0.002759768597414575</v>
       </c>
       <c r="P26">
-        <v>0.003359596197524347</v>
+        <v>0.002859826829483035</v>
       </c>
       <c r="Q26">
-        <v>0.1617378341027778</v>
+        <v>0.08572849539333334</v>
       </c>
       <c r="R26">
-        <v>1.455640506925</v>
+        <v>0.7715564585400001</v>
       </c>
       <c r="S26">
-        <v>7.168282903022749E-05</v>
+        <v>6.453733270717023E-05</v>
       </c>
       <c r="T26">
-        <v>9.935053792433844E-05</v>
+        <v>7.702146491814147E-05</v>
       </c>
     </row>
   </sheetData>
